--- a/hallitus.xlsx
+++ b/hallitus.xlsx
@@ -21,12 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
-    <t>Arvi Syrjänen</t>
-  </si>
-  <si>
-    <t>Ella Seppä</t>
-  </si>
-  <si>
     <t>Ilari Lehtinen</t>
   </si>
   <si>
@@ -39,9 +33,6 @@
     <t>Janne Siltanen</t>
   </si>
   <si>
-    <t>Jari Leppänen</t>
-  </si>
-  <si>
     <t>Jere Selkosmaa</t>
   </si>
   <si>
@@ -78,9 +69,6 @@
     <t>Otto Saksala</t>
   </si>
   <si>
-    <t>Paula Jyrkönen</t>
-  </si>
-  <si>
     <t>Samu Ampio</t>
   </si>
   <si>
@@ -94,6 +82,18 @@
   </si>
   <si>
     <t>Viljami Tiikasalo</t>
+  </si>
+  <si>
+    <t>Arvi Syrjanen</t>
+  </si>
+  <si>
+    <t>Ella Seppa</t>
+  </si>
+  <si>
+    <t>Jari Leppanen</t>
+  </si>
+  <si>
+    <t>Paula Jyrkonen</t>
   </si>
 </sst>
 </file>
@@ -510,135 +510,135 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/hallitus.xlsx
+++ b/hallitus.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7968"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Ilari Lehtinen</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Paula Jyrkonen</t>
+  </si>
+  <si>
+    <t>Annimari Hartikainen</t>
   </si>
 </sst>
 </file>
@@ -135,7 +138,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -188,11 +191,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -204,6 +218,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -508,137 +525,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/hallitus.xlsx
+++ b/hallitus.xlsx
@@ -84,19 +84,19 @@
     <t>Viljami Tiikasalo</t>
   </si>
   <si>
-    <t>Arvi Syrjanen</t>
-  </si>
-  <si>
-    <t>Ella Seppa</t>
-  </si>
-  <si>
-    <t>Jari Leppanen</t>
-  </si>
-  <si>
-    <t>Paula Jyrkonen</t>
-  </si>
-  <si>
     <t>Annimari Hartikainen</t>
+  </si>
+  <si>
+    <t>Arvi Syrjänen</t>
+  </si>
+  <si>
+    <t>Ella Seppä</t>
+  </si>
+  <si>
+    <t>Jari Leppänen</t>
+  </si>
+  <si>
+    <t>Paula Jyrkönen</t>
   </si>
 </sst>
 </file>
@@ -527,20 +527,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -565,7 +568,7 @@
     </row>
     <row r="7" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
@@ -628,9 +631,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -660,7 +663,7 @@
     </row>
     <row r="26" spans="1:1" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/hallitus.xlsx
+++ b/hallitus.xlsx
@@ -87,16 +87,16 @@
     <t>Annimari Hartikainen</t>
   </si>
   <si>
-    <t>Arvi Syrjänen</t>
-  </si>
-  <si>
-    <t>Ella Seppä</t>
-  </si>
-  <si>
-    <t>Jari Leppänen</t>
-  </si>
-  <si>
-    <t>Paula Jyrkönen</t>
+    <t>Paula Jyrkonen</t>
+  </si>
+  <si>
+    <t>Arvi Syrjanen</t>
+  </si>
+  <si>
+    <t>Ella Seppa</t>
+  </si>
+  <si>
+    <t>Jari Leppanen</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -536,14 +536,14 @@
     <col min="1" max="1" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
@@ -566,9 +566,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
@@ -633,7 +633,7 @@
     </row>
     <row r="20" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
